--- a/toy_data/input.xlsx
+++ b/toy_data/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t xml:space="preserve">id_evento</t>
   </si>
@@ -247,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,7 +463,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>23</v>
@@ -502,7 +502,67 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>29731</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/toy_data/input.xlsx
+++ b/toy_data/input.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$T$11</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t xml:space="preserve">id_evento</t>
   </si>
@@ -79,34 +82,121 @@
     <t xml:space="preserve">notas_evento</t>
   </si>
   <si>
+    <t xml:space="preserve">temperatura</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">tito</t>
+    <t xml:space="preserve">Juan Rodriguez</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">posadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la coruña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cordoba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coso</t>
+    <t xml:space="preserve">Jesús María </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isopado positivo confirmado al 10/05. Ingresa al hospital “XXXX”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disnea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dificultades para respirar sin asistencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 05/03 Concurrió al Hospital, luego de presentar dificultades para respirar y mantener estado febril. Presenta  conmorbilidades: diabetes e hipertensión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena Vazquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isopado positivo confirmado al 01/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiebre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiebre persistente no responde a medicamentos administrados oralmente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00 26/05  Se ingresa en sala común</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenzo Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiebre persistente no responde a medicamentos administrados cada 4 oras intercalados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomez Esteban </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración medicamentos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración de mecadimentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00 06/03 Se andaministra antifebrinba 10 mg cada 8 horas para bajar la fiebre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco Juarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos Juarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos Juarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taquicardia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matias López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defunción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paro cardiovascular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:00 06/03 Fallecimiento por paro cardiovascular debido a conmplicaciones con riñones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:00 26/05 Fallecimiento por paro cardiovascular, no llega ser transferido desde sala común a uci</t>
   </si>
 </sst>
 </file>
@@ -117,7 +207,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,14 +235,6 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -205,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,11 +296,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,20 +308,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -247,28 +329,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,244 +417,604 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>23</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>29731</v>
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>43895</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>12</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>29732</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>43977</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>43977</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>29731</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>26</v>
+      <c r="P4" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>43977</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="0" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>43977</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="G7" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="H7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>29731</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="I7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="N7" s="3" t="n">
+        <v>43895</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="N8" s="3" t="n">
+        <v>43977</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="N9" s="3" t="n">
+        <v>43978</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="N10" s="3" t="n">
+        <v>43895</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="N11" s="3" t="n">
+        <v>43977</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:T11"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -571,5 +1022,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>